--- a/Attitude Loose/Attitude Loose/Templates/Onhold Report Template.xlsx
+++ b/Attitude Loose/Attitude Loose/Templates/Onhold Report Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="NCI" sheetId="1" r:id="rId1"/>
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Trial ID" dataDxfId="4"/>
     <tableColumn id="2" name="Onhold Date" dataDxfId="3"/>
@@ -404,17 +404,17 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
-    <col min="3" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,224 +431,224 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
